--- a/xlsx/ZFS_intext.xlsx
+++ b/xlsx/ZFS_intext.xlsx
@@ -29,7 +29,7 @@
     <t>en-ZFS</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_ZFS</t>
+    <t>政策_政策_维基百科_ZFS</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%AF%E4%BB%B6%E8%AE%BE%E8%AE%A1%E5%B8%88</t>
@@ -95,19 +95,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AA%94%E6%A1%88%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>檔案系統</t>
+    <t>档案系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%8F%E8%BC%AF%E6%8D%B2%E8%BB%B8%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>邏輯捲軸管理</t>
+    <t>逻辑捲轴管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%87%E9%99%BD%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>昇陽電腦</t>
+    <t>昇阳电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Solaris</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%AB%E5%85%A5%E6%99%82%E8%A4%87%E8%A3%BD</t>
   </si>
   <si>
-    <t>寫入時複製</t>
+    <t>写入时复制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%A1%E9%AA%8C%E5%92%8C</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%AB%E7%85%A7_(%E9%9B%BB%E8%85%A6%E5%84%B2%E5%AD%98)</t>
   </si>
   <si>
-    <t>快照 (電腦儲存)</t>
+    <t>快照 (电脑储存)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Illumos</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E8%BC%89%E5%85%A5%E6%A0%B8%E5%BF%83%E6%A8%A1%E7%B5%84</t>
   </si>
   <si>
-    <t>可載入核心模組</t>
+    <t>可载入核心模组</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Ubuntu</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%80%AB%E6%96%AF%E5%88%A9%E7%A6%8F%E6%91%A9%E7%88%BE%E5%9C%8B%E5%AE%B6%E5%AF%A6%E9%A9%97%E5%AE%A4</t>
   </si>
   <si>
-    <t>勞倫斯利福摩爾國家實驗室</t>
+    <t>劳伦斯利福摩尔国家实验室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E4%BB%B6%E7%B3%BB%E7%BB%9F</t>
@@ -425,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%B6%E4%BC%B8%E6%AA%94%E6%A1%88%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>延伸檔案系統</t>
+    <t>延伸档案系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Ext2</t>
@@ -473,7 +473,7 @@
     <t>https://zh.wikipedia.org/wiki/Fossil_(%E6%AA%94%E6%A1%88%E7%B3%BB%E7%B5%B1)</t>
   </si>
   <si>
-    <t>Fossil (檔案系統)</t>
+    <t>Fossil (档案系统)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/HAMMER</t>
@@ -497,7 +497,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E6%95%88%E8%83%BD%E6%AA%94%E6%A1%88%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>高效能檔案系統</t>
+    <t>高效能档案系统</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/High_Throughput_File_System</t>
@@ -635,7 +635,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%A0%E7%A8%8B%E6%96%87%E4%BB%B6%E5%85%B1%E4%BA%AB</t>
   </si>
   <si>
-    <t>遠程文件共享</t>
+    <t>远程文件共享</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Smart_File_System</t>
@@ -761,7 +761,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%AB%E9%96%83%E8%A8%98%E6%86%B6%E9%AB%94%E6%AA%94%E6%A1%88%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>快閃記憶體檔案系統</t>
+    <t>快闪记忆体档案系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/F2FS</t>
@@ -821,7 +821,7 @@
     <t>https://zh.wikipedia.org/wiki/Google%E6%AA%94%E6%A1%88%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>Google檔案系統</t>
+    <t>Google档案系统</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/OCFS2</t>
@@ -851,13 +851,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E8%B7%AF%E9%99%84%E5%8A%A0%E5%84%B2%E5%AD%98</t>
   </si>
   <si>
-    <t>網路附加儲存</t>
+    <t>网路附加储存</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E9%AD%AF%E6%AA%94%E6%A1%88%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>安德魯檔案系統</t>
+    <t>安德鲁档案系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/OpenAFS</t>
@@ -881,7 +881,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E6%95%A3%E5%BC%8F%E6%AA%94%E6%A1%88%E7%B3%BB%E7%B5%B1_(Microsoft)</t>
   </si>
   <si>
-    <t>分散式檔案系統 (Microsoft)</t>
+    <t>分散式档案系统 (Microsoft)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Lustre</t>
@@ -893,7 +893,7 @@
     <t>https://zh.wikipedia.org/wiki/NetWare%E6%A0%B8%E5%BF%83%E5%8D%94%E5%AE%9A</t>
   </si>
   <si>
-    <t>NetWare核心協定</t>
+    <t>NetWare核心协定</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E7%BB%9C%E6%96%87%E4%BB%B6%E7%B3%BB%E7%BB%9F</t>
@@ -917,7 +917,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%BA%E6%9C%8D%E5%99%A8%E8%A8%8A%E6%81%AF%E5%8D%80%E5%A1%8A</t>
   </si>
   <si>
-    <t>伺服器訊息區塊</t>
+    <t>伺服器讯息区块</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/SSHFS</t>
@@ -1031,7 +1031,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%99%9B%E6%93%AC%E6%AA%94%E6%A1%88%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>虛擬檔案系統</t>
+    <t>虚拟档案系统</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/configfs</t>
@@ -1205,7 +1205,7 @@
     <t>https://zh.wikipedia.org/wiki/Extent_(%E6%AA%94%E6%A1%88%E7%B3%BB%E7%B5%B1)</t>
   </si>
   <si>
-    <t>Extent (檔案系統)</t>
+    <t>Extent (档案系统)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E4%BB%B6%E5%B1%9E%E6%80%A7</t>
@@ -1265,13 +1265,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%8B%E9%9D%A2_(%E8%B3%87%E8%A8%8A%E7%A7%91%E6%8A%80)</t>
   </si>
   <si>
-    <t>介面 (資訊科技)</t>
+    <t>介面 (资讯科技)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AA%94%E6%A1%88%E7%AE%A1%E7%90%86%E5%99%A8</t>
   </si>
   <si>
-    <t>檔案管理器</t>
+    <t>档案管理器</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/File_system_API</t>
